--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -102,10 +102,10 @@
     <t>Ani Mkjee</t>
   </si>
   <si>
+    <t>Shrishty Chandra</t>
+  </si>
+  <si>
     <t>Not Sent</t>
-  </si>
-  <si>
-    <t>Shrishty Chandra</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,11 +136,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,13 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,14 +477,10 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -694,13 +684,16 @@
       <c r="I7">
         <v>3765</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -709,7 +702,7 @@
         <v>1001</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
